--- a/@list2.xlsx
+++ b/@list2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\C#\program\unit-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45053E9-8C07-4638-816A-0DE90ACA6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE86AD34-65A3-4CF6-B712-8FA74B21ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>p1</t>
   </si>
@@ -337,6 +337,52 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>delegate ( Dis )</t>
+  </si>
+  <si>
+    <t>p39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Single delegate without return without parameter </t>
+  </si>
+  <si>
+    <t>p40</t>
+  </si>
+  <si>
+    <t>Delegate as class data member</t>
+  </si>
+  <si>
+    <t>p41</t>
+  </si>
+  <si>
+    <t>multicast delegate</t>
+  </si>
+  <si>
+    <t>p42</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>p43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue </t>
   </si>
 </sst>
 </file>
@@ -674,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="153" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,6 +1180,73 @@
       <c r="C39" t="s">
         <v>80</v>
       </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/@list2.xlsx
+++ b/@list2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BCA\Semester 4\C#\program\unit-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE86AD34-65A3-4CF6-B712-8FA74B21ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B8EF2-A987-410E-981C-844D2521D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>p1</t>
   </si>
@@ -383,6 +383,46 @@
   </si>
   <si>
     <t xml:space="preserve">Queue </t>
+  </si>
+  <si>
+    <t>p44</t>
+  </si>
+  <si>
+    <t>ArrayList Class and method</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HashTable Class ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uncomplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) Dis add visual Studio Code</t>
+    </r>
+  </si>
+  <si>
+    <t>p46</t>
+  </si>
+  <si>
+    <t>sortedlist Class and Method</t>
   </si>
 </sst>
 </file>
@@ -720,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,6 +1288,39 @@
         <v>92</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
